--- a/No3/Point_1/Test Cases.xlsx
+++ b/No3/Point_1/Test Cases.xlsx
@@ -196,7 +196,7 @@
     <t>Alasan memilih template ini karna simple dan menampilkan data yang esensial</t>
   </si>
   <si>
-    <t>Alasan memilih Test Cases di atas karna merupakan cases yang biasa/paling sering dilakukan oleh user pertama kali dalam platform music streaming</t>
+    <t>Alasan memilih Test Cases di atas karna merupakan cases yang umum dan esensial dilakukan oleh user pertama kali dalam platform music streaming/Youtube music. Sehingga perlu dipastikan feature utama bekerja dengan normal</t>
   </si>
 </sst>
 </file>
@@ -204,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -234,14 +234,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +265,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,14 +286,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -280,8 +294,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,59 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,8 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,19 +384,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +486,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,151 +546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +686,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,18 +719,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,41 +754,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,152 +769,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,7 +954,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1539,7 +1545,7 @@
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1556,7 +1562,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1569,7 +1575,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1664,7 @@
       <c r="A28" s="3">
         <v>7</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1673,7 +1679,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="5" t="s">
         <v>36</v>
       </c>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
@@ -1699,7 +1705,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
@@ -1955,9 +1961,9 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B41:B43"/>
